--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -37,7 +37,13 @@
     <t xml:space="preserve">Ashish Bhardwaj</t>
   </si>
   <si>
+    <t xml:space="preserve">Poonam Devkar</t>
+  </si>
+  <si>
     <t xml:space="preserve">project evaluation and sensor interfacing (temperature and humidity sensor DHT22) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current sensor(INA219) interfacing using I2C protocol.</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,7 +351,9 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
@@ -354,9 +362,11 @@
         <v>45303</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Progress Report</t>
   </si>
@@ -40,10 +40,19 @@
     <t xml:space="preserve">Poonam Devkar</t>
   </si>
   <si>
+    <t xml:space="preserve">Satish Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayisha Khan</t>
+  </si>
+  <si>
     <t xml:space="preserve">project evaluation and sensor interfacing (temperature and humidity sensor DHT22) </t>
   </si>
   <si>
     <t xml:space="preserve">Current sensor(INA219) interfacing using I2C protocol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read CAN Protocol with STM32F407</t>
   </si>
 </sst>
 </file>
@@ -187,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +223,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -312,7 +325,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,385 +367,411 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>45303</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="5" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="5" t="n">
+        <v>45305</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="5" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="5" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="5" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="5" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="5" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="5" t="n">
+        <v>45311</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="5" t="n">
+        <v>45312</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="5" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
